--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/RAUL REQUENES.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/RAUL REQUENES.xlsx
@@ -11,11 +11,10 @@
     <x:sheet name="EKIPINTER" sheetId="4" r:id="rId4"/>
     <x:sheet name="TEKFLEET" sheetId="5" r:id="rId5"/>
     <x:sheet name="IAPI" sheetId="6" r:id="rId6"/>
-    <x:sheet name="PROCOTIZA" sheetId="7" r:id="rId7"/>
-    <x:sheet name="PRODESK" sheetId="8" r:id="rId8"/>
-    <x:sheet name="INBROKER" sheetId="9" r:id="rId9"/>
-    <x:sheet name="DECISION ENGINE" sheetId="10" r:id="rId10"/>
-    <x:sheet name="SMARTIX" sheetId="11" r:id="rId11"/>
+    <x:sheet name="PRODESK" sheetId="7" r:id="rId7"/>
+    <x:sheet name="INBROKER" sheetId="8" r:id="rId8"/>
+    <x:sheet name="DECISION ENGINE" sheetId="9" r:id="rId9"/>
+    <x:sheet name="SMARTIX" sheetId="10" r:id="rId10"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSYSO!$A$5:$L$5</x:definedName>
@@ -23,11 +22,10 @@
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">EKIPINTER!$A$5:$H$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEKFLEET!$A$5:$J$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">IAPI!$A$5:$I$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PROCOTIZA!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PRODESK!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">SMARTIX!$A$5:$J$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PRODESK!$A$5:$K$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SMARTIX!$A$5:$J$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -223,22 +221,13 @@
     <x:t>Administración de Usuarios</x:t>
   </x:si>
   <x:si>
-    <x:t>PROCOTIZA</x:t>
+    <x:t>PRODESK</x:t>
   </x:si>
   <x:si>
     <x:t>Fecha de Creacion</x:t>
   </x:si>
   <x:si>
     <x:t>Ultimo Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTODIO COMPLIANCE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liliana Hernandez Quintero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODESK</x:t>
   </x:si>
   <x:si>
     <x:t>A</x:t>
@@ -936,137 +925,6 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:I7"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.139196" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="39.282054" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="24.139196" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.853482" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:9">
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="D2" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="D4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9">
-      <x:c r="A6" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F6" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H6" s="3"/>
-      <x:c r="I6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F7" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H7" s="3"/>
-      <x:c r="I7" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A5:J5"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
@@ -1659,147 +1517,6 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="23.282054" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.853482" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.567768" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="D2" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="D4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F6" s="4">
-        <x:v>45079</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45355</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I6" s="3"/>
-      <x:c r="J6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>45079</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45315</x:v>
-      </x:c>
-      <x:c r="H7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I7" s="3"/>
-      <x:c r="J7" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A5:K5"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:J7"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
     <x:col min="1" max="1" width="9.424911" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
@@ -1819,7 +1536,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -1866,7 +1583,7 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>37</x:v>
@@ -1875,10 +1592,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45159</x:v>
@@ -1894,7 +1611,7 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
         <x:v>52</x:v>
@@ -1903,10 +1620,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>45106</x:v>
@@ -1930,7 +1647,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +1677,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -1990,10 +1707,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>12</x:v>
@@ -2007,22 +1724,22 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G6" s="5">
         <x:v>45355.368556169</x:v>
@@ -2043,7 +1760,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2072,7 +1789,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -2093,7 +1810,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>7</x:v>
@@ -2116,19 +1833,19 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>44896</x:v>
@@ -2141,19 +1858,19 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>44896</x:v>
@@ -2166,19 +1883,19 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>44896</x:v>
@@ -2188,6 +1905,137 @@
       </x:c>
       <x:c r="H8" s="3"/>
       <x:c r="I8" s="3"/>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A5:J5"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I7"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.853482" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="D2" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H6" s="3"/>
+      <x:c r="I6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="3" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F7" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H7" s="3"/>
+      <x:c r="I7" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:J5"/>
